--- a/artfynd/A 38385-2021.xlsx
+++ b/artfynd/A 38385-2021.xlsx
@@ -1635,7 +1635,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>98349281</v>
+        <v>98657559</v>
       </c>
       <c r="B10" t="n">
         <v>89356</v>
@@ -1684,7 +1684,7 @@
         <v>6629431.842269753</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1747,7 +1747,11 @@
           <t>Linn Svensson</t>
         </is>
       </c>
-      <c r="AY10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>Miniforskningsresan Extensus Örebro län 2021</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
